--- a/data/trans_orig/Q5407-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21C07C5-1F99-46EA-B742-F3111B0D33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEEF0EF-448B-410B-9DD4-3699E6AA8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B69C4176-E556-4340-B389-F3FAE41B2594}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F2B246B1-0A29-4974-865A-4A1BE4C7E69F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="870">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -785,7 +785,79 @@
     <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>6,64%</t>
@@ -938,1684 +1010,1645 @@
     <t>85,19%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3826D054-BE6C-438E-AD4C-CC1929E4882A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA19C653-1463-4344-8F34-A1C20CA6B275}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5017,7 +5050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050FF7DA-1A67-4AA8-A88C-236B7382A8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1AC12-2AA1-4512-8A60-5169186160F4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5135,43 +5168,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>986</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10571</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11556</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,43 +5219,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5674</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12726</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N5" s="7">
+        <v>18400</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,43 +5270,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>37621</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>25598</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="N6" s="7">
+        <v>63219</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,43 +5321,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5380,13 @@
         <v>5256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5338,13 +5395,13 @@
         <v>16485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -5353,13 +5410,13 @@
         <v>21740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5431,13 @@
         <v>12063</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -5389,13 +5446,13 @@
         <v>16372</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -5407,10 +5464,10 @@
         <v>76</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5482,13 @@
         <v>61884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5440,13 +5497,13 @@
         <v>69236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -5455,13 +5512,13 @@
         <v>131120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5586,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5544,13 +5601,13 @@
         <v>10811</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5559,13 +5616,13 @@
         <v>14847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>172</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5637,13 @@
         <v>7251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5595,13 +5652,13 @@
         <v>6284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5610,13 +5667,13 @@
         <v>13534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5688,13 @@
         <v>44455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5646,13 +5703,13 @@
         <v>62873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -5661,13 +5718,13 @@
         <v>107329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,49 +5786,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>6472</v>
+        <v>5487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>19944</v>
+        <v>9373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>26416</v>
+        <v>14860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,49 +5837,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>9752</v>
+        <v>4078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>27076</v>
+        <v>14350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>36828</v>
+        <v>18428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,49 +5888,49 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>92084</v>
+        <v>54464</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>87449</v>
+        <v>61851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="N18" s="7">
-        <v>179533</v>
+        <v>116315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,10 +5939,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -5897,10 +5954,10 @@
         <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5912,10 +5969,10 @@
         <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -5941,13 +5998,13 @@
         <v>2257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5956,13 +6013,13 @@
         <v>8177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5971,13 +6028,13 @@
         <v>10434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6049,13 @@
         <v>3348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6007,13 +6064,13 @@
         <v>6316</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -6025,10 +6082,10 @@
         <v>231</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6100,13 @@
         <v>26007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6058,13 +6115,13 @@
         <v>35362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6073,13 +6130,13 @@
         <v>61369</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6204,13 @@
         <v>4241</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6162,13 +6219,13 @@
         <v>7482</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -6177,13 +6234,13 @@
         <v>11723</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6255,13 @@
         <v>5317</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6213,13 +6270,13 @@
         <v>11626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6228,13 +6285,13 @@
         <v>16944</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6306,13 @@
         <v>42197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6264,13 +6321,13 @@
         <v>51104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -6279,13 +6336,13 @@
         <v>93301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6410,13 @@
         <v>10337</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -6368,13 +6425,13 @@
         <v>10383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6383,13 +6440,13 @@
         <v>20720</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6461,13 @@
         <v>10364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -6419,13 +6476,13 @@
         <v>20178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -6455,13 +6512,13 @@
         <v>91562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
@@ -6470,13 +6527,13 @@
         <v>111401</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="M30" s="7">
         <v>184</v>
@@ -6485,13 +6542,13 @@
         <v>202964</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6616,13 @@
         <v>2253</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6574,13 +6631,13 @@
         <v>15650</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -6589,13 +6646,13 @@
         <v>17903</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6667,13 @@
         <v>6478</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -6625,13 +6682,13 @@
         <v>15333</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -6640,13 +6697,13 @@
         <v>21811</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6718,13 @@
         <v>112021</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="H34" s="7">
         <v>123</v>
@@ -6676,13 +6733,13 @@
         <v>133434</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="M34" s="7">
         <v>222</v>
@@ -6691,13 +6748,13 @@
         <v>245456</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6822,13 @@
         <v>34853</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>81</v>
@@ -6780,13 +6837,13 @@
         <v>88930</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="M36" s="7">
         <v>112</v>
@@ -6795,13 +6852,13 @@
         <v>123784</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6873,13 @@
         <v>54573</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -6831,13 +6888,13 @@
         <v>103184</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M37" s="7">
         <v>141</v>
@@ -6846,13 +6903,13 @@
         <v>157757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6924,13 @@
         <v>470211</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="H38" s="7">
         <v>518</v>
@@ -6882,13 +6939,13 @@
         <v>550860</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="M38" s="7">
         <v>945</v>
@@ -6897,13 +6954,13 @@
         <v>1021071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +7040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62337B2B-87C1-404A-AF6D-BDC39D274812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B77F32F-F6C3-48F1-AEDA-D39ECE741B4F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,7 +7057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7107,13 +7164,13 @@
         <v>2397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7122,13 +7179,13 @@
         <v>2248</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -7137,13 +7194,13 @@
         <v>4645</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7215,13 @@
         <v>5732</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7173,13 +7230,13 @@
         <v>15620</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -7188,13 +7245,13 @@
         <v>21352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7266,13 @@
         <v>30767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -7224,13 +7281,13 @@
         <v>31523</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -7239,13 +7296,13 @@
         <v>62290</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7370,13 @@
         <v>3526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -7328,13 +7385,13 @@
         <v>15718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -7343,13 +7400,13 @@
         <v>19244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7421,13 @@
         <v>2823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7379,13 +7436,13 @@
         <v>13973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -7394,13 +7451,13 @@
         <v>16796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7472,13 @@
         <v>80946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -7430,13 +7487,13 @@
         <v>85537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -7445,13 +7502,13 @@
         <v>166483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7576,13 @@
         <v>3553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7534,13 +7591,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7549,10 +7606,10 @@
         <v>8030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>176</v>
@@ -7570,13 +7627,13 @@
         <v>3076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7585,13 +7642,13 @@
         <v>3439</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7600,13 +7657,13 @@
         <v>6515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7678,13 @@
         <v>56917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -7636,10 +7693,10 @@
         <v>71981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -7651,10 +7708,10 @@
         <v>128898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>183</v>
@@ -7725,13 +7782,13 @@
         <v>3518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7746,7 +7803,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7758,10 +7815,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7833,13 @@
         <v>5210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -7791,13 +7848,13 @@
         <v>18231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -7806,13 +7863,13 @@
         <v>23440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7884,13 @@
         <v>55985</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -7842,13 +7899,13 @@
         <v>73343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -7857,13 +7914,13 @@
         <v>129327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7988,13 @@
         <v>1613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7946,13 +8003,13 @@
         <v>4191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7961,13 +8018,13 @@
         <v>5805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,10 +8042,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -7997,13 +8054,13 @@
         <v>14819</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -8012,13 +8069,13 @@
         <v>17323</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8090,13 @@
         <v>37962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8048,13 +8105,13 @@
         <v>31522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -8063,13 +8120,13 @@
         <v>69484</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8194,13 @@
         <v>1926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8152,13 +8209,13 @@
         <v>9408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8167,13 +8224,13 @@
         <v>11334</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8245,13 @@
         <v>9726</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -8203,13 +8260,13 @@
         <v>10629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -8218,13 +8275,13 @@
         <v>20354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8296,13 @@
         <v>36794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -8254,13 +8311,13 @@
         <v>47351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -8269,13 +8326,13 @@
         <v>84146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8400,13 @@
         <v>7476</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -8358,13 +8415,13 @@
         <v>10083</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -8373,13 +8430,13 @@
         <v>17559</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8451,13 @@
         <v>10253</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -8409,13 +8466,13 @@
         <v>36030</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -8424,13 +8481,13 @@
         <v>46283</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8502,13 @@
         <v>94456</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="H30" s="7">
         <v>86</v>
@@ -8460,10 +8517,10 @@
         <v>101512</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>33</v>
@@ -8475,13 +8532,13 @@
         <v>195968</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,13 +8606,13 @@
         <v>8252</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8564,13 +8621,13 @@
         <v>9325</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -8579,13 +8636,13 @@
         <v>17576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>616</v>
+        <v>324</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8657,13 @@
         <v>11154</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -8615,13 +8672,13 @@
         <v>21124</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -8630,13 +8687,13 @@
         <v>32277</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,10 +8708,10 @@
         <v>114763</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>35</v>
@@ -8666,13 +8723,13 @@
         <v>145849</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -8681,13 +8738,13 @@
         <v>260611</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,13 +8812,13 @@
         <v>32260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -8770,13 +8827,13 @@
         <v>55450</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -8785,13 +8842,13 @@
         <v>87710</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,10 +8866,10 @@
         <v>46</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="H37" s="7">
         <v>109</v>
@@ -8821,13 +8878,13 @@
         <v>133864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="M37" s="7">
         <v>166</v>
@@ -8836,13 +8893,13 @@
         <v>184342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>644</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8914,13 @@
         <v>508590</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H38" s="7">
         <v>503</v>
@@ -8872,13 +8929,13 @@
         <v>588617</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="M38" s="7">
         <v>1038</v>
@@ -8887,13 +8944,13 @@
         <v>1097207</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8973,7 +9030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CB1AA6-0401-4353-BB0A-7D48BFDE4CC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBDD3F4-B771-496E-90A9-C503CB933EEE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8990,7 +9047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9103,37 +9160,37 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>654</v>
+        <v>533</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9145,46 +9202,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>4708</v>
+        <v>5030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>674</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>676</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6088</v>
+        <v>6117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>10796</v>
+        <v>11147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,46 +9253,46 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>47212</v>
+        <v>50871</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="H6" s="7">
         <v>118</v>
       </c>
       <c r="I6" s="7">
-        <v>54548</v>
+        <v>55716</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="M6" s="7">
         <v>194</v>
       </c>
       <c r="N6" s="7">
-        <v>101760</v>
+        <v>106587</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9247,7 +9304,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -9262,7 +9319,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -9277,7 +9334,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -9300,46 +9357,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5511</v>
+        <v>5130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>675</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>559</v>
+        <v>692</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>18417</v>
+        <v>16482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>694</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
       </c>
       <c r="N8" s="7">
-        <v>23928</v>
+        <v>21612</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9351,46 +9408,46 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>7685</v>
+        <v>7071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>682</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>28229</v>
+        <v>25437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>35914</v>
+        <v>32508</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>687</v>
+        <v>428</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>421</v>
+        <v>704</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9402,46 +9459,46 @@
         <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>73118</v>
+        <v>68508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>94061</v>
+        <v>86480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
       </c>
       <c r="N10" s="7">
-        <v>167179</v>
+        <v>154987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9453,7 +9510,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -9468,7 +9525,7 @@
         <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>140707</v>
+        <v>128398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -9483,7 +9540,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>227021</v>
+        <v>209107</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -9506,46 +9563,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>14022</v>
+        <v>13108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>17474</v>
+        <v>15917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>148</v>
+        <v>718</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
       </c>
       <c r="N12" s="7">
-        <v>31497</v>
+        <v>29024</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,46 +9614,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4866</v>
+        <v>4583</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>722</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>19334</v>
+        <v>17595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>708</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>24200</v>
+        <v>22178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>727</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,46 +9665,46 @@
         <v>92</v>
       </c>
       <c r="D14" s="7">
-        <v>58713</v>
+        <v>55799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>730</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
       </c>
       <c r="I14" s="7">
-        <v>55853</v>
+        <v>51925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
       </c>
       <c r="N14" s="7">
-        <v>114565</v>
+        <v>107724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,7 +9716,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -9674,7 +9731,7 @@
         <v>166</v>
       </c>
       <c r="I15" s="7">
-        <v>92661</v>
+        <v>85436</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -9689,7 +9746,7 @@
         <v>288</v>
       </c>
       <c r="N15" s="7">
-        <v>170262</v>
+        <v>158926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -9712,46 +9769,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2994</v>
+        <v>2867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>590</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>720</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>9715</v>
+        <v>9005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>740</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>742</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>12709</v>
+        <v>11872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>723</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9763,46 +9820,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>6833</v>
+        <v>6409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>11047</v>
+        <v>10377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>17880</v>
+        <v>16786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>589</v>
+        <v>751</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9814,46 +9871,46 @@
         <v>103</v>
       </c>
       <c r="D18" s="7">
-        <v>68978</v>
+        <v>65392</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>89693</v>
+        <v>84254</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
       </c>
       <c r="N18" s="7">
-        <v>158670</v>
+        <v>149645</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,7 +9922,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -9880,7 +9937,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -9895,7 +9952,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -9918,46 +9975,46 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>3857</v>
+        <v>3476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>7965</v>
+        <v>7057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>745</v>
+        <v>613</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
       </c>
       <c r="N20" s="7">
-        <v>11822</v>
+        <v>10532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>767</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9969,46 +10026,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>4469</v>
+        <v>4026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>770</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>771</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
       </c>
       <c r="I21" s="7">
-        <v>10213</v>
+        <v>9168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
       </c>
       <c r="N21" s="7">
-        <v>14682</v>
+        <v>13193</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>752</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10020,46 +10077,46 @@
         <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>30006</v>
+        <v>27315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
       </c>
       <c r="I22" s="7">
-        <v>47302</v>
+        <v>43022</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
       </c>
       <c r="N22" s="7">
-        <v>77308</v>
+        <v>70336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10071,7 +10128,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -10086,7 +10143,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -10101,7 +10158,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -10124,46 +10181,46 @@
         <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>9440</v>
+        <v>8982</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>765</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
       </c>
       <c r="I24" s="7">
-        <v>17303</v>
+        <v>16184</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
       </c>
       <c r="N24" s="7">
-        <v>26743</v>
+        <v>25166</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10175,46 +10232,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>7916</v>
+        <v>7545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>795</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
       </c>
       <c r="I25" s="7">
-        <v>16676</v>
+        <v>15576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>24592</v>
+        <v>23121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10226,46 +10283,46 @@
         <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>45827</v>
+        <v>43734</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
       </c>
       <c r="I26" s="7">
-        <v>35874</v>
+        <v>33498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="M26" s="7">
         <v>183</v>
       </c>
       <c r="N26" s="7">
-        <v>81702</v>
+        <v>77232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>809</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,7 +10334,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -10292,7 +10349,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -10307,7 +10364,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -10330,46 +10387,46 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>4590</v>
+        <v>4232</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>790</v>
+        <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
       </c>
       <c r="I28" s="7">
-        <v>20695</v>
+        <v>18450</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>792</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>793</v>
+        <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
       </c>
       <c r="N28" s="7">
-        <v>25285</v>
+        <v>22682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>796</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>797</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10381,46 +10438,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>7915</v>
+        <v>7445</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>799</v>
+        <v>762</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
       </c>
       <c r="I29" s="7">
-        <v>25789</v>
+        <v>23477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>801</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
       </c>
       <c r="N29" s="7">
-        <v>33704</v>
+        <v>30922</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10432,46 +10489,46 @@
         <v>152</v>
       </c>
       <c r="D30" s="7">
-        <v>117575</v>
+        <v>110846</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="H30" s="7">
         <v>167</v>
       </c>
       <c r="I30" s="7">
-        <v>212359</v>
+        <v>297255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>810</v>
+        <v>505</v>
       </c>
       <c r="M30" s="7">
         <v>319</v>
       </c>
       <c r="N30" s="7">
-        <v>329933</v>
+        <v>408101</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>813</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10483,7 +10540,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="7">
-        <v>130080</v>
+        <v>122523</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -10498,7 +10555,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -10513,7 +10570,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>388923</v>
+        <v>461705</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -10536,46 +10593,46 @@
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>2312</v>
+        <v>1997</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
       </c>
       <c r="I32" s="7">
-        <v>12796</v>
+        <v>10574</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>817</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
       </c>
       <c r="N32" s="7">
-        <v>15108</v>
+        <v>12571</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>834</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>250</v>
+        <v>835</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>820</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10587,46 +10644,46 @@
         <v>30</v>
       </c>
       <c r="D33" s="7">
-        <v>22013</v>
+        <v>18806</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>823</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>85</v>
       </c>
       <c r="I33" s="7">
-        <v>57284</v>
+        <v>46759</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="M33" s="7">
         <v>115</v>
       </c>
       <c r="N33" s="7">
-        <v>79297</v>
+        <v>65564</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10638,46 +10695,46 @@
         <v>201</v>
       </c>
       <c r="D34" s="7">
-        <v>145602</v>
+        <v>126278</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="H34" s="7">
         <v>239</v>
       </c>
       <c r="I34" s="7">
-        <v>152962</v>
+        <v>129309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="M34" s="7">
         <v>440</v>
       </c>
       <c r="N34" s="7">
-        <v>298564</v>
+        <v>255587</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>837</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,7 +10746,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -10704,7 +10761,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -10719,7 +10776,7 @@
         <v>578</v>
       </c>
       <c r="N35" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -10742,46 +10799,46 @@
         <v>71</v>
       </c>
       <c r="D36" s="7">
-        <v>42727</v>
+        <v>39792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>838</v>
+        <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>499</v>
+        <v>850</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="H36" s="7">
         <v>202</v>
       </c>
       <c r="I36" s="7">
-        <v>105948</v>
+        <v>95244</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>325</v>
+        <v>853</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>841</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>273</v>
       </c>
       <c r="N36" s="7">
-        <v>148675</v>
+        <v>135036</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>50</v>
+        <v>854</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>842</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10793,46 +10850,46 @@
         <v>98</v>
       </c>
       <c r="D37" s="7">
-        <v>66406</v>
+        <v>60914</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>284</v>
+        <v>857</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="H37" s="7">
         <v>310</v>
       </c>
       <c r="I37" s="7">
-        <v>174661</v>
+        <v>154505</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="M37" s="7">
         <v>408</v>
       </c>
       <c r="N37" s="7">
-        <v>241066</v>
+        <v>215419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>850</v>
+        <v>744</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>851</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10844,46 +10901,46 @@
         <v>857</v>
       </c>
       <c r="D38" s="7">
-        <v>587029</v>
+        <v>548742</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>852</v>
+        <v>114</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="H38" s="7">
         <v>1191</v>
       </c>
       <c r="I38" s="7">
-        <v>742654</v>
+        <v>781459</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="M38" s="7">
         <v>2048</v>
       </c>
       <c r="N38" s="7">
-        <v>1329683</v>
+        <v>1330200</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>666</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10895,7 +10952,7 @@
         <v>1026</v>
       </c>
       <c r="D39" s="7">
-        <v>696161</v>
+        <v>649448</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -10910,7 +10967,7 @@
         <v>1703</v>
       </c>
       <c r="I39" s="7">
-        <v>1023263</v>
+        <v>1031208</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -10925,7 +10982,7 @@
         <v>2729</v>
       </c>
       <c r="N39" s="7">
-        <v>1719424</v>
+        <v>1680655</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
